--- a/empmaster.xlsx
+++ b/empmaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\inube\2023\apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AC21CB-AF89-4744-9C4D-3593CD173473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A61BDC0-DE00-48ED-8875-8DFB38118C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Employee Master</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>&lt;Delete&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Update&gt;</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H14"/>
+  <dimension ref="C3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,12 +416,12 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -426,7 +429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -434,7 +437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -442,7 +445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -450,7 +453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -458,7 +461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -466,7 +469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
@@ -483,7 +486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>1</v>
       </c>
@@ -502,13 +505,19 @@
       <c r="H13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/empmaster.xlsx
+++ b/empmaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\inube\2023\apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A61BDC0-DE00-48ED-8875-8DFB38118C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F57D67-77C7-475A-ABB5-79836E8DBC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="C3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/empmaster.xlsx
+++ b/empmaster.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\inube\2023\apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F57D67-77C7-475A-ABB5-79836E8DBC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18EC78D-3BF2-4D1C-84F0-99CA901B452A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Employee Master</t>
   </si>
@@ -70,13 +71,43 @@
   </si>
   <si>
     <t>&lt;Update&gt;</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>User Id</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Display only first twenty todos</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Search By Title</t>
+  </si>
+  <si>
+    <t>&lt;Reset&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +122,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -119,10 +155,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,23 +444,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A3" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9">
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -429,7 +468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -437,7 +476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -445,7 +484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -453,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -461,7 +500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9">
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -469,7 +508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9">
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
@@ -486,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9">
       <c r="C13">
         <v>1</v>
       </c>
@@ -509,7 +548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9">
       <c r="C14">
         <v>2</v>
       </c>
@@ -518,6 +557,73 @@
       </c>
       <c r="I14" t="s">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B5FA25-8AE6-4716-BD7F-97B57A70F7DE}">
+  <dimension ref="B3:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
